--- a/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T14:32:46-05:00</t>
+    <t>2022-03-16T09:57:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:57:32-04:00</t>
+    <t>2022-03-25T16:16:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:16:05-04:00</t>
+    <t>2022-03-25T16:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:25:37-04:00</t>
+    <t>2022-04-01T12:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T12:43:46-04:00</t>
+    <t>2022-04-05T10:32:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T10:32:14-04:00</t>
+    <t>2022-04-05T18:50:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:50:47-04:00</t>
+    <t>2022-04-08T11:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$82</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="478">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T11:43:46-04:00</t>
+    <t>2022-04-20T16:26:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -639,6 +639,45 @@
   </si>
   <si>
     <t>An extension describing the service delivery method.   If service delivery is virtual, one or more delivery modalities should be specified.</t>
+  </si>
+  <si>
+    <t>paymentaccepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/paymentAccepted}
+</t>
+  </si>
+  <si>
+    <t>Payment Accepted</t>
+  </si>
+  <si>
+    <t>Methods of payment that can be used for a healthcare service</t>
+  </si>
+  <si>
+    <t>requiredDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/requiredDocument}
+</t>
+  </si>
+  <si>
+    <t>Required Document</t>
+  </si>
+  <si>
+    <t>Documents that are required in order to access or use services (eg. Gov't issued ID, passport)</t>
+  </si>
+  <si>
+    <t>fundingSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/fundingSource}
+</t>
+  </si>
+  <si>
+    <t>Funding Source</t>
+  </si>
+  <si>
+    <t>The sources of funding for a service or organization</t>
   </si>
   <si>
     <t>HealthcareService.modifierExtension</t>
@@ -1781,7 +1820,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK79"/>
+  <dimension ref="A1:AK82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3929,11 +3968,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3946,26 +3987,22 @@
         <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N21" t="s" s="2">
         <v>202</v>
       </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>74</v>
       </c>
@@ -4013,7 +4050,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4022,13 +4059,13 @@
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>110</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
@@ -4036,9 +4073,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4056,16 +4095,16 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4116,7 +4155,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4125,23 +4164,25 @@
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>209</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>74</v>
       </c>
@@ -4150,7 +4191,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -4162,13 +4203,13 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4219,22 +4260,22 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
@@ -4259,7 +4300,7 @@
         <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>74</v>
@@ -4268,15 +4309,17 @@
         <v>102</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4312,19 +4355,19 @@
         <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4339,7 +4382,7 @@
         <v>110</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -4347,7 +4390,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4358,32 +4401,28 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4407,13 +4446,13 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4431,13 +4470,13 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
@@ -4446,13 +4485,13 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>74</v>
-      </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>222</v>
       </c>
@@ -4468,29 +4507,25 @@
         <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>223</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4514,13 +4549,13 @@
         <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>74</v>
@@ -4538,7 +4573,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4550,10 +4585,10 @@
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>221</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4561,18 +4596,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -4581,23 +4616,21 @@
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>103</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4609,7 +4642,7 @@
         <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>74</v>
@@ -4633,42 +4666,42 @@
         <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>238</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4682,27 +4715,29 @@
         <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4714,7 +4749,7 @@
         <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>74</v>
@@ -4726,13 +4761,13 @@
         <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>74</v>
@@ -4750,7 +4785,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4765,15 +4800,15 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4787,7 +4822,7 @@
         <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4796,16 +4831,20 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4829,13 +4868,13 @@
         <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>74</v>
@@ -4853,7 +4892,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4868,7 +4907,7 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4876,7 +4915,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4899,18 +4938,20 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>253</v>
+        <v>124</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4922,7 +4963,7 @@
         <v>74</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>74</v>
@@ -4958,7 +4999,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4973,7 +5014,7 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -4981,7 +5022,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4989,7 +5030,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>82</v>
@@ -4998,38 +5039,36 @@
         <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>260</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P31" t="s" s="2">
-        <v>264</v>
-      </c>
+      <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>74</v>
@@ -5065,7 +5104,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5080,15 +5119,15 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>267</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5102,7 +5141,7 @@
         <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -5111,17 +5150,15 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -5170,7 +5207,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5185,29 +5222,29 @@
         <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>275</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5216,16 +5253,16 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5251,11 +5288,13 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5273,13 +5312,13 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>74</v>
@@ -5288,56 +5327,60 @@
         <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>281</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="Q34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>74</v>
+        <v>277</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>74</v>
@@ -5352,11 +5395,13 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>286</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>74</v>
@@ -5374,13 +5419,13 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
@@ -5389,15 +5434,15 @@
         <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>74</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5408,7 +5453,7 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>83</v>
@@ -5420,15 +5465,17 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -5453,11 +5500,13 @@
         <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>291</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
@@ -5475,13 +5524,13 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>74</v>
@@ -5490,7 +5539,7 @@
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5498,18 +5547,18 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>83</v>
@@ -5521,15 +5570,17 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>74</v>
@@ -5554,13 +5605,11 @@
         <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>74</v>
@@ -5578,7 +5627,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5593,26 +5642,26 @@
         <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>74</v>
+        <v>295</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>83</v>
@@ -5624,13 +5673,13 @@
         <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5657,13 +5706,11 @@
         <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>74</v>
+        <v>298</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>74</v>
@@ -5681,13 +5728,13 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
@@ -5696,7 +5743,7 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5704,7 +5751,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5715,7 +5762,7 @@
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>83</v>
@@ -5727,17 +5774,15 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -5762,13 +5807,11 @@
         <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>303</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>74</v>
@@ -5786,13 +5829,13 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
@@ -5801,15 +5844,15 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5820,25 +5863,25 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5889,13 +5932,13 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
@@ -5904,15 +5947,15 @@
         <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>74</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5926,7 +5969,7 @@
         <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -5935,13 +5978,13 @@
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>313</v>
+        <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5992,7 +6035,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6007,7 +6050,7 @@
         <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -6015,7 +6058,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6026,7 +6069,7 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>83</v>
@@ -6035,19 +6078,19 @@
         <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>318</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6097,13 +6140,13 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
@@ -6112,7 +6155,7 @@
         <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -6120,7 +6163,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6143,13 +6186,13 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>320</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>96</v>
+        <v>321</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>97</v>
+        <v>322</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6200,7 +6243,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>98</v>
+        <v>319</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6212,10 +6255,10 @@
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>323</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
@@ -6227,14 +6270,14 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>74</v>
@@ -6243,20 +6286,18 @@
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>102</v>
+        <v>325</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6293,34 +6334,34 @@
         <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>109</v>
+        <v>324</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>328</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
@@ -6328,11 +6369,9 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6353,15 +6392,17 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6410,7 +6451,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>109</v>
+        <v>329</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6422,22 +6463,20 @@
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>74</v>
+        <v>334</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6446,10 +6485,10 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -6458,13 +6497,13 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>330</v>
+        <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>331</v>
+        <v>96</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>332</v>
+        <v>97</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6515,61 +6554,63 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>334</v>
+        <v>103</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6594,46 +6635,46 @@
         <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>336</v>
+        <v>74</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>337</v>
+        <v>74</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>338</v>
+        <v>109</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>339</v>
+        <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>340</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -6641,9 +6682,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>74</v>
       </c>
@@ -6652,7 +6695,7 @@
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>83</v>
@@ -6661,23 +6704,19 @@
         <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>338</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>74</v>
       </c>
@@ -6725,32 +6764,34 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>346</v>
+        <v>109</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>347</v>
+        <v>74</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>74</v>
       </c>
@@ -6759,32 +6800,28 @@
         <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>158</v>
+        <v>342</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>74</v>
       </c>
@@ -6808,13 +6845,13 @@
         <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>353</v>
+        <v>74</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>354</v>
+        <v>74</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
@@ -6832,30 +6869,30 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>355</v>
+        <v>109</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>356</v>
+        <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6869,7 +6906,7 @@
         <v>82</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -6878,17 +6915,15 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>358</v>
+        <v>158</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -6913,13 +6948,13 @@
         <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>74</v>
+        <v>348</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>74</v>
@@ -6937,7 +6972,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -6946,21 +6981,21 @@
         <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>74</v>
+        <v>351</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>352</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6974,7 +7009,7 @@
         <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
@@ -6983,16 +7018,20 @@
         <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>247</v>
+        <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7040,7 +7079,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7055,15 +7094,15 @@
         <v>94</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7074,30 +7113,32 @@
         <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H51" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H51" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="I51" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>293</v>
+        <v>158</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7121,13 +7162,13 @@
         <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>74</v>
+        <v>365</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>74</v>
+        <v>366</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>74</v>
@@ -7145,13 +7186,13 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>74</v>
@@ -7160,7 +7201,7 @@
         <v>94</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
@@ -7168,7 +7209,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7179,7 +7220,7 @@
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>74</v>
@@ -7188,19 +7229,19 @@
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7226,13 +7267,13 @@
         <v>74</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>375</v>
+        <v>74</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>377</v>
+        <v>74</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>74</v>
@@ -7250,13 +7291,13 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>74</v>
@@ -7265,7 +7306,7 @@
         <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>378</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
@@ -7273,7 +7314,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7284,7 +7325,7 @@
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>74</v>
@@ -7293,16 +7334,16 @@
         <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7353,13 +7394,13 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>74</v>
@@ -7368,15 +7409,15 @@
         <v>94</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7387,10 +7428,10 @@
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7399,15 +7440,17 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>305</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>96</v>
+        <v>381</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7456,22 +7499,22 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>98</v>
+        <v>380</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>384</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
@@ -7479,11 +7522,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7502,16 +7545,16 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>386</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>104</v>
+        <v>387</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>105</v>
+        <v>388</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7537,13 +7580,13 @@
         <v>74</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>74</v>
+        <v>387</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>74</v>
+        <v>389</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>74</v>
@@ -7561,7 +7604,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>109</v>
+        <v>385</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7573,10 +7616,10 @@
         <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>390</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
@@ -7584,11 +7627,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>386</v>
+        <v>74</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7601,26 +7644,22 @@
         <v>74</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>102</v>
+        <v>392</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>74</v>
       </c>
@@ -7668,7 +7707,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -7680,10 +7719,10 @@
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>74</v>
@@ -7691,7 +7730,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7714,13 +7753,13 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>223</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>391</v>
+        <v>96</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>392</v>
+        <v>97</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7747,10 +7786,10 @@
         <v>74</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>393</v>
+        <v>74</v>
       </c>
       <c r="Y57" t="s" s="2">
         <v>74</v>
@@ -7771,7 +7810,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>390</v>
+        <v>98</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7783,10 +7822,10 @@
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>378</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>74</v>
@@ -7794,18 +7833,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>74</v>
@@ -7817,16 +7856,16 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>395</v>
+        <v>103</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>396</v>
+        <v>104</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>397</v>
+        <v>105</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7876,22 +7915,22 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>394</v>
+        <v>109</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>398</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>74</v>
@@ -7899,11 +7938,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>74</v>
+        <v>398</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7916,24 +7955,26 @@
         <v>74</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="M59" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>74</v>
       </c>
@@ -7957,13 +7998,13 @@
         <v>74</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>403</v>
+        <v>74</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>404</v>
+        <v>74</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>74</v>
@@ -7981,7 +8022,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -7993,10 +8034,10 @@
         <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>405</v>
+        <v>181</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>74</v>
@@ -8004,7 +8045,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8015,7 +8056,7 @@
         <v>75</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>74</v>
@@ -8027,17 +8068,15 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -8065,7 +8104,7 @@
         <v>148</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="Y60" t="s" s="2">
         <v>74</v>
@@ -8086,13 +8125,13 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>74</v>
@@ -8101,7 +8140,7 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
@@ -8109,7 +8148,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8120,7 +8159,7 @@
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>74</v>
@@ -8132,16 +8171,16 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>223</v>
+        <v>320</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8167,13 +8206,13 @@
         <v>74</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>74</v>
@@ -8191,13 +8230,13 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>74</v>
@@ -8206,7 +8245,7 @@
         <v>94</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>74</v>
+        <v>410</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>74</v>
@@ -8214,7 +8253,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8237,15 +8276,17 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>74</v>
@@ -8273,10 +8314,10 @@
         <v>148</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>74</v>
@@ -8294,7 +8335,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8309,15 +8350,15 @@
         <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8328,10 +8369,10 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -8340,15 +8381,17 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>74</v>
@@ -8373,10 +8416,10 @@
         <v>74</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>74</v>
+        <v>422</v>
       </c>
       <c r="Y63" t="s" s="2">
         <v>74</v>
@@ -8397,13 +8440,13 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
@@ -8412,13 +8455,13 @@
         <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>423</v>
       </c>
@@ -8434,7 +8477,7 @@
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -8443,7 +8486,7 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>380</v>
+        <v>235</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>424</v>
@@ -8478,13 +8521,13 @@
         <v>74</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>74</v>
@@ -8517,7 +8560,7 @@
         <v>94</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>427</v>
+        <v>74</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>74</v>
@@ -8525,7 +8568,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8536,7 +8579,7 @@
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>74</v>
@@ -8548,13 +8591,13 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>96</v>
+        <v>428</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>97</v>
+        <v>429</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8581,13 +8624,13 @@
         <v>74</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>74</v>
+        <v>430</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>74</v>
+        <v>431</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>74</v>
@@ -8605,44 +8648,44 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>98</v>
+        <v>427</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>417</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>74</v>
@@ -8651,17 +8694,15 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>102</v>
+        <v>272</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>103</v>
+        <v>433</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>74</v>
@@ -8710,34 +8751,34 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>109</v>
+        <v>432</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>417</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>386</v>
+        <v>74</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8747,29 +8788,27 @@
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>102</v>
+        <v>392</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>74</v>
       </c>
@@ -8817,7 +8856,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -8829,18 +8868,18 @@
         <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>181</v>
+        <v>439</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8851,10 +8890,10 @@
         <v>75</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -8863,13 +8902,13 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>432</v>
+        <v>96</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>433</v>
+        <v>97</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8896,13 +8935,13 @@
         <v>74</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>434</v>
+        <v>74</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>435</v>
+        <v>74</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>74</v>
@@ -8920,44 +8959,44 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>431</v>
+        <v>98</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>427</v>
+        <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -8966,15 +9005,17 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>260</v>
+        <v>102</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>437</v>
+        <v>103</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>74</v>
@@ -9023,64 +9064,66 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>436</v>
+        <v>109</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>427</v>
+        <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>74</v>
+        <v>398</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H70" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H70" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="I70" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>440</v>
+        <v>102</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>74</v>
       </c>
@@ -9128,22 +9171,22 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>427</v>
+        <v>181</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>74</v>
@@ -9151,7 +9194,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9162,7 +9205,7 @@
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>83</v>
@@ -9174,17 +9217,15 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>440</v>
+        <v>158</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>443</v>
-      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>74</v>
@@ -9209,13 +9250,13 @@
         <v>74</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>74</v>
+        <v>446</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>74</v>
+        <v>447</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>74</v>
@@ -9233,13 +9274,13 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>74</v>
@@ -9248,7 +9289,7 @@
         <v>94</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>74</v>
@@ -9256,7 +9297,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9267,7 +9308,7 @@
         <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>83</v>
@@ -9279,13 +9320,13 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>380</v>
+        <v>272</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9336,13 +9377,13 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>74</v>
@@ -9351,15 +9392,15 @@
         <v>94</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9373,7 +9414,7 @@
         <v>82</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>74</v>
@@ -9382,15 +9423,17 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>84</v>
+        <v>452</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>96</v>
+        <v>453</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>74</v>
@@ -9439,7 +9482,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>98</v>
+        <v>451</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -9451,32 +9494,32 @@
         <v>74</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>439</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>74</v>
@@ -9485,16 +9528,16 @@
         <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>102</v>
+        <v>452</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>103</v>
+        <v>457</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>104</v>
+        <v>458</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>105</v>
+        <v>455</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9544,34 +9587,34 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>109</v>
+        <v>456</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>439</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>386</v>
+        <v>74</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9581,29 +9624,25 @@
         <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>102</v>
+        <v>392</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>387</v>
+        <v>460</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>74</v>
       </c>
@@ -9651,7 +9690,7 @@
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>389</v>
+        <v>459</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -9663,18 +9702,18 @@
         <v>74</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>181</v>
+        <v>439</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9682,13 +9721,13 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>74</v>
@@ -9700,10 +9739,10 @@
         <v>84</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>454</v>
+        <v>96</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>455</v>
+        <v>97</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9754,10 +9793,10 @@
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>453</v>
+        <v>98</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>82</v>
@@ -9766,7 +9805,7 @@
         <v>74</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>99</v>
@@ -9775,23 +9814,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>74</v>
@@ -9800,15 +9839,17 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>457</v>
+        <v>103</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>74</v>
@@ -9857,62 +9898,66 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>456</v>
+        <v>109</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>427</v>
+        <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>74</v>
+        <v>398</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H78" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="I78" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>460</v>
+        <v>399</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>74</v>
       </c>
@@ -9960,22 +10005,22 @@
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>459</v>
+        <v>401</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>427</v>
+        <v>181</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>74</v>
@@ -9983,7 +10028,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9991,10 +10036,10 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>83</v>
@@ -10006,13 +10051,13 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>463</v>
+        <v>84</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10063,13 +10108,13 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>74</v>
@@ -10084,8 +10129,317 @@
         <v>74</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK79">
+  <autoFilter ref="A1:AK82">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10095,7 +10449,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
+  <conditionalFormatting sqref="A2:AI81">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:26:55-04:00</t>
+    <t>2022-05-25T13:59:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T13:59:19-04:00</t>
+    <t>2022-06-03T15:19:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-HealthcareServiceComplete.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T15:19:55-04:00</t>
+    <t>2022-07-08T11:33:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
